--- a/Laporan Keluar Masuk Keuangan.xlsx
+++ b/Laporan Keluar Masuk Keuangan.xlsx
@@ -1,26 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E82D9-7705-4759-82E9-C860E78855CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Laporan Keuangan" sheetId="1" r:id="rId1"/>
+    <sheet name="Laporan Kinerja Bulanan" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Laporan Keuangan'!$A$3:$G$15</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+  <si>
+    <t>Laporan Keluar Masuk Keuangan</t>
+  </si>
+  <si>
+    <t>Nomor</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Transaksi</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Kredit</t>
+  </si>
+  <si>
+    <t>Saldo Awal</t>
+  </si>
+  <si>
+    <t>Beli Peralatan Kantor</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Kode Transaksi</t>
+  </si>
+  <si>
+    <t>Penjualan Buku</t>
+  </si>
+  <si>
+    <t>Beli Buku</t>
+  </si>
+  <si>
+    <t>Pemasukan dan Pegeluaran</t>
+  </si>
+  <si>
+    <t>Laporan Kinerja Bulanan</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Omset</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +104,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,14 +162,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +256,1050 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kinerja Bulanan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Laporan Kinerja Bulanan'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Omset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Laporan Kinerja Bulanan'!$A$4:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>45679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45710</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45860</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45922</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45983</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Laporan Kinerja Bulanan'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1525000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1450000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1700000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3500000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9974-4D9E-8F6E-03DFF92093D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1425141200"/>
+        <c:axId val="1425147920"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="1425141200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bulan</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40208923884514436"/>
+              <c:y val="0.90645815106445027"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1425147920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1425147920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1425141200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B6BA6E-5BC3-BB2C-D41F-040405A8C3CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1564,423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45965</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1000000</v>
+      </c>
+      <c r="G5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45965</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>50000</v>
+      </c>
+      <c r="G6">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45965</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>60000</v>
+      </c>
+      <c r="G7">
+        <v>155000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45995</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>45000</v>
+      </c>
+      <c r="G8">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45996</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>15000</v>
+      </c>
+      <c r="G9">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45996</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>45000</v>
+      </c>
+      <c r="G10">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45996</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>45000</v>
+      </c>
+      <c r="G11">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45996</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>145000</v>
+      </c>
+      <c r="G12">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45996</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>65000</v>
+      </c>
+      <c r="G13">
+        <v>485000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45996</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>200000</v>
+      </c>
+      <c r="G14">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45996</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>55000</v>
+      </c>
+      <c r="G15">
+        <v>340000</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:G15" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Penjualan Buku"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="6">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="G3:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416F8864-FDD4-4072-82FF-D44701FA56A1}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>45679</v>
+      </c>
+      <c r="B4" s="12">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>45710</v>
+      </c>
+      <c r="B5" s="12">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>45738</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>45769</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1525000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>45799</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>45830</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1450000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>45860</v>
+      </c>
+      <c r="B10" s="12">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>45891</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>45922</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>45952</v>
+      </c>
+      <c r="B13" s="12">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>45983</v>
+      </c>
+      <c r="B14" s="12">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>46013</v>
+      </c>
+      <c r="B15" s="12">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594322AE-6D1C-4640-B502-31AB23DE28AA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>